--- a/spliced/struggle/2023-04-06_18-11-11/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-11-11/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2285218238830561</v>
+        <v>0.04686117172241161</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.162128377705812</v>
+        <v>-0.03032520040869657</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1944056674838058</v>
+        <v>0.02842492796480637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1096982955932607</v>
+        <v>0.01706874370574948</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.9903637319803219</v>
+        <v>0.07629761099815366</v>
       </c>
       <c r="C3" t="n">
-        <v>1.168615095317362</v>
+        <v>-0.1732735317200423</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9691734313964835</v>
+        <v>-0.2285218238830561</v>
       </c>
       <c r="B4" t="n">
-        <v>1.9581446647644</v>
+        <v>-0.162128377705812</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.859957635402668</v>
+        <v>0.1944056674838058</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1940504908561733</v>
+        <v>0.1096982955932607</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2241474241018375</v>
+        <v>-0.9903637319803219</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.310114443302172</v>
+        <v>1.168615095317362</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.58094030618667</v>
+        <v>0.9691734313964835</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.941463194787501</v>
+        <v>1.9581446647644</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.144656896591187</v>
+        <v>-7.859957635402668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.82746779918671</v>
+        <v>0.1940504908561733</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9869420528411925</v>
+        <v>0.2241474241018375</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4169094562530551</v>
+        <v>-5.310114443302172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.769100129604333</v>
+        <v>-1.58094030618667</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7612166106700828</v>
+        <v>-1.941463194787501</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9901726245880039</v>
+        <v>-1.144656896591187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.232726603746395</v>
+        <v>-1.82746779918671</v>
       </c>
       <c r="B9" t="n">
-        <v>2.152586340904233</v>
+        <v>-0.9869420528411925</v>
       </c>
       <c r="C9" t="n">
-        <v>3.093920886516565</v>
+        <v>-0.4169094562530551</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-6.777266740798977</v>
+        <v>-1.769100129604333</v>
       </c>
       <c r="B10" t="n">
-        <v>1.212506279349337</v>
+        <v>0.7612166106700828</v>
       </c>
       <c r="C10" t="n">
-        <v>2.062903136014953</v>
+        <v>0.9901726245880039</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.723967790603678</v>
+        <v>-6.232726603746395</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.365190558135525</v>
+        <v>2.152586340904233</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.315693378448508</v>
+        <v>3.093920886516565</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.335351765155792</v>
+        <v>-6.777266740798977</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1078430823981759</v>
+        <v>1.212506279349337</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2542362809181207</v>
+        <v>2.062903136014953</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.176319241523743</v>
+        <v>3.723967790603678</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.169533859938384</v>
+        <v>-2.365190558135525</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.148270010948179</v>
+        <v>-3.315693378448508</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.89803910255433</v>
+        <v>-2.335351765155792</v>
       </c>
       <c r="B14" t="n">
-        <v>1.068912088871008</v>
+        <v>-0.1078430823981759</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.883550018072123</v>
+        <v>-0.2542362809181207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.4242868423461992</v>
+        <v>-2.176319241523743</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.01184737682341952</v>
+        <v>-0.169533859938384</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.823844432830806</v>
+        <v>-1.148270010948179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.959070533514023</v>
+        <v>-1.89803910255433</v>
       </c>
       <c r="B16" t="n">
-        <v>0.853676103055477</v>
+        <v>1.068912088871008</v>
       </c>
       <c r="C16" t="n">
-        <v>3.545509129762649</v>
+        <v>-3.883550018072123</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.4488477408886036</v>
+        <v>-0.4242868423461992</v>
       </c>
       <c r="B17" t="n">
-        <v>2.171596139669413</v>
+        <v>-0.01184737682341952</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5545313358307062</v>
+        <v>-4.823844432830806</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.753711834549896</v>
+        <v>-1.959070533514023</v>
       </c>
       <c r="B18" t="n">
-        <v>1.106546383351094</v>
+        <v>0.853676103055477</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5750183463096592</v>
+        <v>3.545509129762649</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-6.07151210308075</v>
+        <v>-0.4488477408886036</v>
       </c>
       <c r="B19" t="n">
-        <v>1.909203633666039</v>
+        <v>2.171596139669413</v>
       </c>
       <c r="C19" t="n">
-        <v>4.961617231369019</v>
+        <v>0.5545313358307062</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-7.940525859594342</v>
+        <v>-1.753711834549896</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5168425776064485</v>
+        <v>1.106546383351094</v>
       </c>
       <c r="C20" t="n">
-        <v>1.82176046073439</v>
+        <v>0.5750183463096592</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-6.07151210308075</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.909203633666039</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.961617231369019</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-7.940525859594342</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5168425776064485</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.82176046073439</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>-0.5248832702637101</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>-2.431172959506501</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>-2.120043188333502</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4282075166702048</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.7951091900468019</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.767483308911331</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-2.543609619140639</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4462372660637008</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.760738492012012</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.2467263936996389</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.1943315342068692</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.037849001586441</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.9171624183654843</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.3103487230837345</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1225722581148094</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.926007807254792</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2953229788690807</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.136403992772098</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.3645055294036889</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3592699170112605</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.912454850971703</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.7052955031394972</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.3671576231718077</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.5781752001494165</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.5357744693756123</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.6449819654226362</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.8872665241360714</v>
       </c>
     </row>
   </sheetData>
